--- a/Banco Central/5/8/2/Forward 2021 - Diaria.xlsx
+++ b/Banco Central/5/8/2/Forward 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Serie</t>
   </si>
@@ -431,6 +431,21 @@
   </si>
   <si>
     <t>22-07-2021</t>
+  </si>
+  <si>
+    <t>26-07-2021</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
   </si>
 </sst>
 </file>
@@ -788,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2275,6 +2290,55 @@
         <v>3</v>
       </c>
     </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137">
+        <v>3.02</v>
+      </c>
+      <c r="D137">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140">
+        <v>2.78</v>
+      </c>
+      <c r="D140">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141">
+        <v>2.9</v>
+      </c>
+      <c r="D141">
+        <v>2.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
